--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO345879.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO345879.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F8F902-24FC-4CC2-AED3-8547C6A69C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3400EB-67D9-42F3-BA1A-1F485D220B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{0966567F-695F-4EE4-99DB-39B27D8C7D08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>IT Support</t>
   </si>
@@ -33,10 +33,28 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Beverages and Catering</t>
+  </si>
+  <si>
+    <t>Concierge Services</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Waste management services</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
     <t>Various paper supplies</t>
-  </si>
-  <si>
-    <t>CAD</t>
   </si>
 </sst>
 </file>
@@ -389,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB47AF5-B5D3-4EB7-B36C-ED449128148D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,48 +415,255 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>397354</v>
+        <v>192544</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1">
-        <v>138786</v>
+        <v>54050</v>
       </c>
       <c r="D1">
-        <v>27757.200000000001</v>
+        <v>10810</v>
       </c>
       <c r="E1">
-        <v>166543</v>
+        <v>64860</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1">
-        <v>42737</v>
+        <v>42749</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>897012</v>
+        <v>563211</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>100461</v>
+      </c>
+      <c r="D2">
+        <v>20092.2</v>
+      </c>
+      <c r="E2">
+        <v>120553</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>138310</v>
-      </c>
-      <c r="D2">
-        <v>27662</v>
-      </c>
-      <c r="E2">
-        <v>165972</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>633396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>175542</v>
+      </c>
+      <c r="D3">
+        <v>35108.400000000001</v>
+      </c>
+      <c r="E3">
+        <v>210650</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>828839</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>235083</v>
+      </c>
+      <c r="D4">
+        <v>47016.6</v>
+      </c>
+      <c r="E4">
+        <v>282100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>200516</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
-        <v>42791</v>
+      <c r="C5">
+        <v>66899</v>
+      </c>
+      <c r="D5">
+        <v>13379.8</v>
+      </c>
+      <c r="E5">
+        <v>80278.8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>381876</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>149671</v>
+      </c>
+      <c r="D6">
+        <v>29934.2</v>
+      </c>
+      <c r="E6">
+        <v>179605</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>597817</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>156906</v>
+      </c>
+      <c r="D7">
+        <v>31381.200000000001</v>
+      </c>
+      <c r="E7">
+        <v>188287</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>128450</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>187968</v>
+      </c>
+      <c r="D8">
+        <v>37593.599999999999</v>
+      </c>
+      <c r="E8">
+        <v>225562</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>117705</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>249380</v>
+      </c>
+      <c r="D9">
+        <v>49876</v>
+      </c>
+      <c r="E9">
+        <v>299256</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>452893</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>136895</v>
+      </c>
+      <c r="D10">
+        <v>27379</v>
+      </c>
+      <c r="E10">
+        <v>164274</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>367573</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>56896</v>
+      </c>
+      <c r="D11">
+        <v>11379.2</v>
+      </c>
+      <c r="E11">
+        <v>68275.199999999997</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43097</v>
       </c>
     </row>
   </sheetData>
